--- a/CucumberBDDFrameVedant/SampleData/ExcelTestData.xlsx
+++ b/CucumberBDDFrameVedant/SampleData/ExcelTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedant.jagani/git/Salesforce/CucumberBDDFrame/SampleData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedant.jagani/git/Salesforce/CucumberBDDFrameVedant/SampleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ACD5CC-32E8-4249-99D6-ACAE39D12EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1129A6-D32A-504B-AFD9-BCDCBC77E18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="2040" windowWidth="30340" windowHeight="15680" activeTab="1" xr2:uid="{1BB7990F-EB9F-9642-BB13-7F4EC9CFB64B}"/>
+    <workbookView xWindow="73700" yWindow="1640" windowWidth="31540" windowHeight="17120" activeTab="1" xr2:uid="{1BB7990F-EB9F-9642-BB13-7F4EC9CFB64B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="139">
   <si>
     <t>Chicago</t>
   </si>
@@ -129,9 +129,6 @@
     <t>ExteriorColor</t>
   </si>
   <si>
-    <t>IntrestedYear</t>
-  </si>
-  <si>
     <t>Mileage</t>
   </si>
   <si>
@@ -348,12 +345,6 @@
     <t>OpportunityNameField</t>
   </si>
   <si>
-    <t>IDSCustomer#Field</t>
-  </si>
-  <si>
-    <t>IDSFIQuote#Field</t>
-  </si>
-  <si>
     <t>GeniusNotes2Field</t>
   </si>
   <si>
@@ -429,9 +420,6 @@
     <t>WorksheetID</t>
   </si>
   <si>
-    <t>INTERESTED FIELD</t>
-  </si>
-  <si>
     <t>2015</t>
   </si>
   <si>
@@ -445,6 +433,24 @@
   </si>
   <si>
     <t>1234567788</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>LeadEmail@gmail.com.test</t>
+  </si>
+  <si>
+    <t>Class-A-20</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Walk In</t>
   </si>
 </sst>
 </file>
@@ -962,112 +968,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93B6A42-D4F4-3F45-893A-619B43200CA0}">
   <dimension ref="A1:CS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="BO2" sqref="BO2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="32" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="29.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="26.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="29.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="34.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="29.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="26.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="30.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="26.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="21.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="19.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="25.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="30" style="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="28.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="27" style="7" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="24.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="30" style="7" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="28.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="31.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="25.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="35.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="24.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="30" style="7" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="27" style="7" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="31.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="27" style="7" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="21.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="28.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="14.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="24.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="21.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="19.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="13.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="25.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="25.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="83" max="84" width="31.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="90" max="91" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="21.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="32.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="28.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="25.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="24.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="21.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="24.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="21.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="98" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:97" s="2" customFormat="1" ht="18">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>19</v>
@@ -1076,7 +1087,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>21</v>
@@ -1085,13 +1096,13 @@
         <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>25</v>
@@ -1100,19 +1111,19 @@
         <v>27</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>28</v>
@@ -1124,252 +1135,252 @@
         <v>30</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="CG1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CM1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CS1" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:97" s="3" customFormat="1" ht="19">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="3">
-        <v>50</v>
+        <v>102</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="3">
-        <v>0.2</v>
+        <v>100</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>22</v>
@@ -1377,11 +1388,11 @@
       <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>105</v>
+      <c r="I2" s="3">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3">
+        <v>60</v>
       </c>
       <c r="K2" s="3">
         <v>125</v>
@@ -1390,265 +1401,266 @@
         <v>26</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O2" s="3">
         <v>50</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>31</v>
+        <v>137</v>
+      </c>
+      <c r="V2" s="3">
+        <v>2020</v>
       </c>
       <c r="W2" s="3">
         <v>12323</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y2" s="3">
         <v>4</v>
       </c>
       <c r="Z2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="AN2" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AO2" s="3">
         <v>200</v>
       </c>
       <c r="AP2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="AV2" s="3">
         <v>450</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AX2" s="3">
         <v>500</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AZ2" s="5">
         <v>10</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BB2" s="3">
         <v>50</v>
       </c>
       <c r="BC2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="BD2" s="5" t="s">
+      <c r="BE2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="BE2" s="5" t="s">
+      <c r="BF2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="BF2" s="5" t="s">
+      <c r="BG2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="BG2" s="5" t="s">
+      <c r="BH2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="BH2" s="5" t="s">
+      <c r="BI2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="BI2" s="5" t="s">
+      <c r="BJ2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="BJ2" s="5" t="s">
+      <c r="BK2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="BK2" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="BL2" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="BM2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BN2" s="5" t="s">
-        <v>73</v>
+        <v>129</v>
+      </c>
+      <c r="BM2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN2" s="5">
+        <v>1231233344</v>
       </c>
       <c r="BO2" s="5" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="BP2" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="BQ2" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="BR2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS2" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="BS2" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="BT2" s="5">
         <v>10</v>
       </c>
       <c r="BU2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="BV2" s="5" t="s">
+      <c r="BW2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="BW2" s="5" t="s">
+      <c r="BX2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="BX2" s="5" t="s">
+      <c r="BY2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="BY2" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="BZ2" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="CA2" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="CB2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="CC2" s="5" t="s">
+      <c r="CD2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="CD2" s="5" t="s">
+      <c r="CE2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="CE2" s="5" t="s">
+      <c r="CF2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="CG2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="CF2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="CG2" s="5" t="s">
+      <c r="CH2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="CH2" s="5" t="s">
+      <c r="CI2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="CI2" s="5" t="s">
+      <c r="CJ2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="CJ2" s="5" t="s">
+      <c r="CK2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="CK2" s="5" t="s">
+      <c r="CL2" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="CL2" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="CM2" s="5">
         <v>12</v>
       </c>
       <c r="CN2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="CO2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="CO2" s="5" t="s">
+      <c r="CP2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="CP2" s="5" t="s">
+      <c r="CQ2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CQ2" s="5" t="s">
+      <c r="CR2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="CR2" s="5" t="s">
+      <c r="CS2" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="CS2" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="BZ2" r:id="rId1" xr:uid="{F07FB793-E2A7-3248-8C15-040F696DE390}"/>
+    <hyperlink ref="BM2" r:id="rId2" xr:uid="{4A4BB2E8-37D2-8E42-AE0C-3724921A2DE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
